--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -674,9 +674,9 @@
   <dimension ref="A1:E1020"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,7 +1450,9 @@
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="143">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ptlp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope coefficient of the Medlyn stomatal conductance model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g1_Medlyn</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters of the stomatal response to leaf water potential</t>
@@ -671,12 +677,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1020"/>
+  <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1092,22 +1098,20 @@
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -1118,10 +1122,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
@@ -1132,10 +1136,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
@@ -1146,10 +1150,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -1160,13 +1164,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1190,22 +1197,19 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1219,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1233,49 +1237,49 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1289,15 +1293,15 @@
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
@@ -1308,10 +1312,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
@@ -1322,19 +1326,21 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>108</v>
@@ -1342,16 +1348,14 @@
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
@@ -1362,10 +1366,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
@@ -1376,19 +1380,21 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>113</v>
@@ -1396,16 +1402,14 @@
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
@@ -1416,10 +1420,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
@@ -1430,19 +1434,21 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>118</v>
@@ -1450,9 +1456,7 @@
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
@@ -1465,77 +1469,77 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1549,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1563,13 +1567,26 @@
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D66" s="3"/>
+    </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2524,6 +2541,7 @@
     <row r="1018" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1019" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1020" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1021" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">%</t>
   </si>
   <si>
-    <t xml:space="preserve">Barck thickness</t>
+    <t xml:space="preserve">Bark thickness</t>
   </si>
   <si>
     <t xml:space="preserve">BarkThickness</t>
@@ -511,6 +511,24 @@
   </si>
   <si>
     <t xml:space="preserve">mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succulence (g of water /m2 of projected leaf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafSucculence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf projected to half developed area (m2/m2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafProjectedToHalfDevelopedArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2/m2</t>
   </si>
 </sst>
 </file>
@@ -680,15 +698,15 @@
   <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
@@ -1538,7 +1556,7 @@
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1585,9 +1603,33 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -529,6 +529,36 @@
   </si>
   <si>
     <t xml:space="preserve">m2/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum conductance of the leaf to water vapor on developed area basis (including cuticule and stomatal leakiness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GminLeaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmol·m-2·s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 of the initial gmin response to temperature (before Tp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10gminPhase1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 of the initial gmin response to temperature (after Tp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10gminPhase2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition phase for gmin dependence to temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GminTransitionPhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
   </si>
 </sst>
 </file>
@@ -700,13 +730,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="111.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
@@ -1630,10 +1660,58 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown ratio (crown length divided over total height)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrownRatio</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf area per leaf dry mass (specific leaf area, SLA), 1/ Leaf mass per area (LMA)</t>
@@ -725,12 +731,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1021"/>
+  <dimension ref="A1:E1022"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -937,72 +943,74 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1015,22 +1023,19 @@
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1044,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1058,88 +1063,88 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>62</v>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1152,87 +1157,90 @@
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1256,22 +1264,19 @@
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1299,49 +1304,49 @@
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1355,52 +1360,54 @@
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>110</v>
@@ -1408,53 +1415,53 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>115</v>
@@ -1462,53 +1469,53 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>120</v>
@@ -1516,9 +1523,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
@@ -1531,77 +1536,77 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1615,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1629,62 +1634,64 @@
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
@@ -1708,11 +1715,22 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2662,6 +2680,7 @@
     <row r="1019" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1020" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1021" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1022" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
+    <t xml:space="preserve">MinimumValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaximumValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Life form</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum (tree) diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmax</t>
   </si>
   <si>
     <t xml:space="preserve">Actual plant height</t>
@@ -508,6 +520,18 @@
   </si>
   <si>
     <t xml:space="preserve">SeedLongevity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maturation height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maturation diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmat</t>
   </si>
   <si>
     <t xml:space="preserve">Seed dry mass</t>
@@ -731,12 +755,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1022"/>
+  <dimension ref="A1:F1025"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,906 +787,1063 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>69</v>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>90</v>
+      <c r="E41" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>69</v>
+      <c r="E46" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>34</v>
+        <v>141</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>144</v>
+        <v>28</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,37 +1854,48 @@
         <v>149</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>153</v>
+      <c r="E69" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3"/>
+      <c r="E70" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
@@ -1713,27 +1905,70 @@
         <v>157</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>161</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2681,6 +2916,9 @@
     <row r="1020" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1021" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1022" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1023" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1024" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1025" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Harmonized trait definition" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Harmonized trait definition" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -589,6 +589,87 @@
   </si>
   <si>
     <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf construction costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g gluc * g dry-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapwood construction costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCsapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine root construction costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCfineroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date to start the accumulation of degree days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t0gdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree days for leaf budburst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sgdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degrees C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base temperature for the calculation of degree days to leaf budburst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbgdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree days corresponding to senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoperiod corresponding to start counting senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base temperature for the calculation of degree days to senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tbsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of temperature  on senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,1,2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod  on senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ysen</t>
   </si>
 </sst>
 </file>
@@ -709,32 +790,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,17 +823,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1025"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,10 +977,10 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3"/>
@@ -1038,7 +1217,7 @@
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1086,7 +1265,7 @@
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1097,7 +1276,7 @@
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1114,7 +1293,7 @@
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1131,7 +1310,7 @@
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1148,7 +1327,7 @@
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1171,7 +1350,7 @@
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -1188,7 +1367,7 @@
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -1199,7 +1378,7 @@
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1213,7 +1392,7 @@
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1238,7 +1417,7 @@
       <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1252,7 +1431,7 @@
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1349,7 +1528,7 @@
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1363,7 +1542,7 @@
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1377,7 +1556,7 @@
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1394,7 +1573,7 @@
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -1411,7 +1590,7 @@
       <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1428,7 +1607,7 @@
       <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1445,7 +1624,7 @@
       <c r="A44" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1734,7 +1913,7 @@
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E61" s="1" t="n">
@@ -1745,13 +1924,13 @@
       <c r="A62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E62" s="1" t="n">
@@ -1762,13 +1941,13 @@
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E63" s="1" t="n">
@@ -1969,17 +2148,169 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t xml:space="preserve">LeafAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of sapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemEPS</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf water potential at turgor loss point</t>
@@ -934,12 +940,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1025"/>
+  <dimension ref="A1:F1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1423,9 +1429,7 @@
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
@@ -1437,7 +1441,9 @@
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
@@ -1449,19 +1455,14 @@
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -1475,10 +1476,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
@@ -1492,10 +1493,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -1509,10 +1510,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -1526,7 +1527,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>89</v>
@@ -1534,7 +1535,10 @@
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1562,25 +1566,22 @@
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>0</v>
@@ -1597,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>0</v>
@@ -1614,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>0</v>
@@ -1622,16 +1623,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>0</v>
@@ -1639,16 +1640,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>0</v>
@@ -1656,16 +1657,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>0</v>
@@ -1682,18 +1683,18 @@
         <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
@@ -1707,10 +1708,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>15</v>
@@ -1724,22 +1725,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="1" t="n">
+      <c r="D50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>116</v>
@@ -1747,19 +1750,17 @@
       <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="D51" s="3"/>
+      <c r="E51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -1773,10 +1774,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -1790,22 +1791,24 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="1" t="n">
+      <c r="D54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>121</v>
@@ -1813,19 +1816,17 @@
       <c r="C55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="1" t="n">
+      <c r="D55" s="3"/>
+      <c r="E55" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
@@ -1839,10 +1840,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>15</v>
@@ -1856,22 +1857,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="1" t="n">
+      <c r="D58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>126</v>
@@ -1879,9 +1882,7 @@
       <c r="C59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="1" t="n">
         <v>0</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>0</v>
@@ -1905,50 +1906,50 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E61" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="E62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>0</v>
@@ -1956,39 +1957,39 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="E64" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E65" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2002,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>0</v>
@@ -2019,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>0</v>
@@ -2053,7 +2054,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>0</v>
@@ -2061,16 +2062,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>0</v>
@@ -2078,16 +2079,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>0</v>
@@ -2095,16 +2096,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>0</v>
@@ -2112,15 +2113,20 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="3"/>
+      <c r="E73" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
@@ -2144,39 +2150,34 @@
       <c r="C75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>0</v>
@@ -2193,7 +2194,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>0</v>
@@ -2210,35 +2211,38 @@
         <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2252,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2266,21 +2270,21 @@
         <v>15</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2294,24 +2298,37 @@
         <v>15</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3250,6 +3267,7 @@
     <row r="1023" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1024" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1025" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1026" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative units</t>
+  </si>
+  <si>
     <t xml:space="preserve">MinimumValue</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t xml:space="preserve">LeafAngle</t>
   </si>
   <si>
-    <t xml:space="preserve">degrees</t>
+    <t xml:space="preserve">degree</t>
   </si>
   <si>
     <t xml:space="preserve">Dispersal syndrome</t>
@@ -106,7 +109,7 @@
     <t xml:space="preserve">LeafDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">yrs</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum plant height</t>
@@ -151,7 +154,10 @@
     <t xml:space="preserve">SLA</t>
   </si>
   <si>
-    <t xml:space="preserve">m2*kg-1 = mm2*mg-1</t>
+    <t xml:space="preserve">m2 kg-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm2 mg-1</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf area to sapwood area ratio (Al2As), 1 / Huber Value (Hv)</t>
@@ -160,7 +166,7 @@
     <t xml:space="preserve">Al2As</t>
   </si>
   <si>
-    <t xml:space="preserve">m2*m-2</t>
+    <t xml:space="preserve">m2 m-2</t>
   </si>
   <si>
     <t xml:space="preserve">Proportion of sapwood corresponding to conducive elements (vessels or tracheids) as opposed to parenchymatic tissue.</t>
@@ -175,7 +181,7 @@
     <t xml:space="preserve">SRL</t>
   </si>
   <si>
-    <t xml:space="preserve">cm/g</t>
+    <t xml:space="preserve">cm g-1</t>
   </si>
   <si>
     <t xml:space="preserve">Proportion of total fine fuels that are dead</t>
@@ -184,9 +190,6 @@
     <t xml:space="preserve">pDead</t>
   </si>
   <si>
-    <t xml:space="preserve">[0-1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stem carbon (C) content per stem dry mass</t>
   </si>
   <si>
@@ -199,7 +202,10 @@
     <t xml:space="preserve">LeafDensity</t>
   </si>
   <si>
-    <t xml:space="preserve">g*cm-3 = mg*mm-3</t>
+    <t xml:space="preserve">g cm-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg mm-3</t>
   </si>
   <si>
     <t xml:space="preserve">Wood tissue density (at 0% humidity!)</t>
@@ -234,28 +240,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mol H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O * s</t>
+      <t xml:space="preserve">mol s-1</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +251,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-1 </t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -276,19 +261,8 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* m</t>
+      <t xml:space="preserve">m-2</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Minimum stomatal conductance to water vapor</t>
@@ -318,6 +292,9 @@
     <t xml:space="preserve">LeafAF</t>
   </si>
   <si>
+    <t xml:space="preserve">[0-1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of sapwood</t>
   </si>
   <si>
@@ -372,7 +349,7 @@
     <t xml:space="preserve">Nleaf</t>
   </si>
   <si>
-    <t xml:space="preserve">mg/g</t>
+    <t xml:space="preserve">mg g-1</t>
   </si>
   <si>
     <t xml:space="preserve">Wood nitrogen (N) content per wood dry mass</t>
@@ -411,7 +388,7 @@
     <t xml:space="preserve">kleaf</t>
   </si>
   <si>
-    <t xml:space="preserve">mmol·m-2·s-1·MPa-1</t>
+    <t xml:space="preserve">mmol m-2 s-1 MPa-1</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum whole-plant hydraulic conductance</t>
@@ -477,7 +454,7 @@
     <t xml:space="preserve">LFMC</t>
   </si>
   <si>
-    <t xml:space="preserve">% of dry weight</t>
+    <t xml:space="preserve">%</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio of foliar (photosynthetic) + small branches (&lt;6.35 mm) dry biomass to foliar (photosynthetic) dry biomass</t>
@@ -486,16 +463,13 @@
     <t xml:space="preserve">r635</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">High fuel heat content</t>
   </si>
   <si>
     <t xml:space="preserve">HeatContent</t>
   </si>
   <si>
-    <t xml:space="preserve">kJ/kg</t>
+    <t xml:space="preserve">kJ kg-1</t>
   </si>
   <si>
     <t xml:space="preserve">Surface-area-to-volume ratio</t>
@@ -504,7 +478,7 @@
     <t xml:space="preserve">SAV</t>
   </si>
   <si>
-    <t xml:space="preserve">m2/m3</t>
+    <t xml:space="preserve">m2 m-3</t>
   </si>
   <si>
     <t xml:space="preserve">Percent of lignin+cutin over dry weight in leaves</t>
@@ -513,9 +487,6 @@
     <t xml:space="preserve">LigninPercent</t>
   </si>
   <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bark thickness</t>
   </si>
   <si>
@@ -555,7 +526,7 @@
     <t xml:space="preserve">LeafSucculence</t>
   </si>
   <si>
-    <t xml:space="preserve">g/m2</t>
+    <t xml:space="preserve">g m-2</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf projected to half developed area (m2/m2)</t>
@@ -564,16 +535,13 @@
     <t xml:space="preserve">LeafProjectedToHalfDevelopedArea</t>
   </si>
   <si>
-    <t xml:space="preserve">m2/m2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minimum conductance of the leaf to water vapor on developed area basis (including cuticule and stomatal leakiness)</t>
   </si>
   <si>
     <t xml:space="preserve">GminLeaf</t>
   </si>
   <si>
-    <t xml:space="preserve">mmol·m-2·s-1</t>
+    <t xml:space="preserve">mmol m-2 s-1</t>
   </si>
   <si>
     <t xml:space="preserve">Q10 of the initial gmin response to temperature (before Tp)</t>
@@ -594,7 +562,7 @@
     <t xml:space="preserve">GminTransitionPhase</t>
   </si>
   <si>
-    <t xml:space="preserve">°C</t>
+    <t xml:space="preserve">Celsius</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf construction costs</t>
@@ -603,7 +571,7 @@
     <t xml:space="preserve">CCleaf</t>
   </si>
   <si>
-    <t xml:space="preserve">g gluc * g dry-1</t>
+    <t xml:space="preserve">g  g-1</t>
   </si>
   <si>
     <t xml:space="preserve">Sapwood construction costs</t>
@@ -624,7 +592,7 @@
     <t xml:space="preserve">t0gdd</t>
   </si>
   <si>
-    <t xml:space="preserve">days</t>
+    <t xml:space="preserve">day</t>
   </si>
   <si>
     <t xml:space="preserve">Degree days for leaf budburst</t>
@@ -633,9 +601,6 @@
     <t xml:space="preserve">Sgdd</t>
   </si>
   <si>
-    <t xml:space="preserve">Degrees C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Base temperature for the calculation of degree days to leaf budburst</t>
   </si>
   <si>
@@ -654,7 +619,7 @@
     <t xml:space="preserve">Phsen</t>
   </si>
   <si>
-    <t xml:space="preserve">hours</t>
+    <t xml:space="preserve">hour</t>
   </si>
   <si>
     <t xml:space="preserve">Base temperature for the calculation of degree days to senescence</t>
@@ -685,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -731,14 +696,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -940,12 +897,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1026"/>
+  <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,9 +911,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="6" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="39" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="7" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="40" style="1" width="12.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -978,1136 +936,1209 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="1" t="n">
+      <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="G36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="G37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="3"/>
+      <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="G49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="G50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="3"/>
+      <c r="F51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="G52" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="G53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="G54" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="3"/>
+      <c r="F55" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="G56" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="G57" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="G58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="3"/>
+      <c r="F59" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2119,12 +2150,13 @@
         <v>162</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="3"/>
+      <c r="F73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,9 +2168,10 @@
         <v>165</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
@@ -2148,9 +2181,10 @@
         <v>167</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
@@ -2160,11 +2194,12 @@
         <v>169</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -2174,12 +2209,13 @@
         <v>172</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="3"/>
+      <c r="F77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2191,12 +2227,13 @@
         <v>175</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="3"/>
+      <c r="F78" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2208,12 +2245,13 @@
         <v>177</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="3"/>
+      <c r="F79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2225,11 +2263,12 @@
         <v>179</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
@@ -2239,95 +2278,102 @@
         <v>182</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -240,7 +240,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mol s-1</t>
+      <t xml:space="preserve">mol s-1 </t>
     </r>
     <r>
       <rPr>
@@ -251,7 +251,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">xsen</t>
   </si>
   <si>
-    <t xml:space="preserve">{0,1,2}</t>
+    <t xml:space="preserve">Integer</t>
   </si>
   <si>
     <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod  on senescence</t>
@@ -900,9 +900,9 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2353,12 +2353,16 @@
         <v>193</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
+      <c r="F86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -2368,12 +2372,16 @@
         <v>196</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
+      <c r="F87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternative units</t>
+    <t xml:space="preserve">AlternativeUnits</t>
   </si>
   <si>
     <t xml:space="preserve">MinimumValue</t>
@@ -900,9 +900,9 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="199">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">AlternativeUnits</t>
+    <t xml:space="preserve">EquivalentUnits</t>
   </si>
   <si>
     <t xml:space="preserve">MinimumValue</t>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">m2 m-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm2 mm-2</t>
   </si>
   <si>
     <t xml:space="preserve">Proportion of sapwood corresponding to conducive elements (vessels or tracheids) as opposed to parenchymatic tissue.</t>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umol m-2 s-1</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf photosynthesis electron transport capacity (Jmax) per leaf area (Farquhar model)</t>
@@ -900,9 +906,9 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1193,17 +1199,19 @@
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -1211,16 +1219,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="n">
@@ -1229,10 +1237,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
@@ -1248,10 +1256,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
@@ -1259,19 +1267,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
@@ -1279,19 +1287,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>0</v>
@@ -1299,19 +1307,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0</v>
@@ -1319,10 +1327,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -1337,16 +1345,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="n">
@@ -1355,16 +1363,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="n">
@@ -1373,25 +1381,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -1399,25 +1407,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
@@ -1427,25 +1435,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
@@ -1455,16 +1463,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3"/>
       <c r="G34" s="1" t="n">
@@ -1473,16 +1481,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3"/>
       <c r="G35" s="1" t="n">
@@ -1491,16 +1499,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="3"/>
       <c r="G36" s="1" t="n">
@@ -1509,16 +1517,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="3"/>
       <c r="G37" s="1" t="n">
@@ -1527,16 +1535,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="3"/>
       <c r="G38" s="1" t="n">
@@ -1545,13 +1553,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>0</v>
@@ -1559,13 +1570,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0</v>
@@ -1573,16 +1587,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1" t="n">
@@ -1591,16 +1605,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1" t="n">
@@ -1609,16 +1623,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="1" t="n">
@@ -1627,16 +1641,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1" t="n">
@@ -1645,16 +1659,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1" t="n">
@@ -1663,16 +1677,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="n">
@@ -1681,16 +1695,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1" t="n">
@@ -1699,16 +1713,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="3"/>
       <c r="G48" s="1" t="n">
@@ -1717,16 +1731,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="3"/>
       <c r="G49" s="1" t="n">
@@ -1735,16 +1749,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="3"/>
       <c r="G50" s="1" t="n">
@@ -1753,10 +1767,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>16</v>
@@ -1769,16 +1783,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="3"/>
       <c r="G52" s="1" t="n">
@@ -1787,16 +1801,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="3"/>
       <c r="G53" s="1" t="n">
@@ -1805,16 +1819,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" s="3"/>
       <c r="G54" s="1" t="n">
@@ -1823,10 +1837,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>16</v>
@@ -1839,16 +1853,16 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="3"/>
       <c r="G56" s="1" t="n">
@@ -1857,16 +1871,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" s="3"/>
       <c r="G57" s="1" t="n">
@@ -1875,16 +1889,16 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="3"/>
       <c r="G58" s="1" t="n">
@@ -1893,10 +1907,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
@@ -1909,16 +1923,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="n">
@@ -1927,16 +1941,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="1" t="n">
@@ -1945,10 +1959,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>16</v>
@@ -1961,16 +1975,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="1" t="n">
@@ -1979,16 +1993,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="1" t="n">
@@ -1997,16 +2011,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="1" t="n">
@@ -2018,10 +2032,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>16</v>
@@ -2036,10 +2050,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>16</v>
@@ -2054,10 +2068,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>16</v>
@@ -2072,10 +2086,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>16</v>
@@ -2090,16 +2104,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="1" t="n">
@@ -2108,16 +2122,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="1" t="n">
@@ -2126,10 +2140,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>16</v>
@@ -2144,16 +2158,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="1" t="n">
@@ -2162,10 +2176,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>16</v>
@@ -2175,10 +2189,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>16</v>
@@ -2188,31 +2202,31 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="1" t="n">
@@ -2221,16 +2235,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="1" t="n">
@@ -2239,16 +2253,16 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="1" t="n">
@@ -2257,103 +2271,103 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2366,13 +2380,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -577,7 +577,7 @@
     <t xml:space="preserve">CCleaf</t>
   </si>
   <si>
-    <t xml:space="preserve">g  g-1</t>
+    <t xml:space="preserve">g g-1</t>
   </si>
   <si>
     <t xml:space="preserve">Sapwood construction costs</t>
@@ -906,9 +906,9 @@
   <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="211">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">EquivalentUnits</t>
   </si>
   <si>
+    <t xml:space="preserve">AcceptedValues</t>
+  </si>
+  <si>
     <t xml:space="preserve">MinimumValue</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
+    <t xml:space="preserve">Chamaephyte,Cryptophyte,Epiphyte,Hemicryptophyte,Phanerophyte,Therophyte,Hydrophyte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Growth form</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t xml:space="preserve">LeafShape</t>
   </si>
   <si>
+    <t xml:space="preserve">Broad,Linear,Needle,Scale,Spines,Succulent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaf area </t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t xml:space="preserve">PhenologyType</t>
   </si>
   <si>
+    <t xml:space="preserve">drought-semideciduous,oneflush-evergreen,winter-deciduous,winter-semideciduous</t>
+  </si>
+  <si>
     <t xml:space="preserve">Duration of leaves (leaf lifespan)</t>
   </si>
   <si>
@@ -197,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">WoodC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g g-1</t>
   </si>
   <si>
     <t xml:space="preserve">Density of leaf tissue (dry weight over volume)</t>
@@ -571,15 +586,33 @@
     <t xml:space="preserve">Celsius</t>
   </si>
   <si>
+    <t xml:space="preserve">Maintenance respiration rates for leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RERleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g g-1 day-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance respiration rates for living cells of sapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RERsapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance respiration rates for fine roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RERfineroot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaf construction costs</t>
   </si>
   <si>
     <t xml:space="preserve">CCleaf</t>
   </si>
   <si>
-    <t xml:space="preserve">g g-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sapwood construction costs</t>
   </si>
   <si>
@@ -641,6 +674,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2</t>
   </si>
   <si>
     <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod  on senescence</t>
@@ -903,12 +939,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1026"/>
+  <dimension ref="A1:H1029"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,9 +954,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="7" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="40" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="8" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="41" style="1" width="12.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -945,1461 +981,1622 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="3"/>
+      <c r="G25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="4"/>
+      <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="4"/>
+      <c r="G27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="G34" s="1" t="n">
+      <c r="F34" s="3"/>
+      <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="G35" s="1" t="n">
+      <c r="F35" s="3"/>
+      <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="G36" s="1" t="n">
+      <c r="F36" s="3"/>
+      <c r="H36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="G37" s="1" t="n">
+      <c r="F37" s="3"/>
+      <c r="H37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="G38" s="1" t="n">
+      <c r="F38" s="3"/>
+      <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="3"/>
+      <c r="G41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="3"/>
+      <c r="G42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="3"/>
+      <c r="G43" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="3"/>
+      <c r="G44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="3"/>
+      <c r="G45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="3"/>
+      <c r="G46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="3"/>
+      <c r="G47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="G48" s="1" t="n">
+      <c r="F48" s="3"/>
+      <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="G49" s="1" t="n">
+      <c r="F49" s="3"/>
+      <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="G50" s="1" t="n">
+      <c r="F50" s="3"/>
+      <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="1" t="n">
+      <c r="F51" s="3"/>
+      <c r="G51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="G52" s="1" t="n">
+      <c r="F52" s="3"/>
+      <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="G53" s="1" t="n">
+      <c r="F53" s="3"/>
+      <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="G54" s="1" t="n">
+      <c r="F54" s="3"/>
+      <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="3"/>
+      <c r="G55" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="G56" s="1" t="n">
+      <c r="F56" s="3"/>
+      <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E57" s="3"/>
-      <c r="G57" s="1" t="n">
+      <c r="F57" s="3"/>
+      <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="G58" s="1" t="n">
+      <c r="F58" s="3"/>
+      <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="3"/>
+      <c r="G59" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="1" t="n">
+      <c r="F60" s="3"/>
+      <c r="G60" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="3"/>
+      <c r="G61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="1" t="n">
+      <c r="F62" s="4"/>
+      <c r="G62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="1" t="n">
+      <c r="F63" s="4"/>
+      <c r="G63" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="1" t="n">
+      <c r="F64" s="4"/>
+      <c r="G64" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="1" t="n">
+      <c r="F66" s="3"/>
+      <c r="G66" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="1" t="n">
+      <c r="F67" s="3"/>
+      <c r="G67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="1" t="n">
+      <c r="F68" s="3"/>
+      <c r="G68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="1" t="n">
+      <c r="F69" s="3"/>
+      <c r="G69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="1" t="n">
+      <c r="F70" s="3"/>
+      <c r="G70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="1" t="n">
+      <c r="F71" s="3"/>
+      <c r="G71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="1" t="n">
+      <c r="F72" s="3"/>
+      <c r="G72" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="1" t="n">
+      <c r="F73" s="3"/>
+      <c r="G73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="3"/>
+      <c r="G77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="1" t="n">
+      <c r="F78" s="3"/>
+      <c r="G78" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="1" t="n">
+      <c r="F79" s="3"/>
+      <c r="G79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1" t="n">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3336,6 +3533,9 @@
     <row r="1024" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1025" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1026" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1027" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1028" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1029" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
-    <t xml:space="preserve">Chamaephyte,Cryptophyte,Epiphyte,Hemicryptophyte,Phanerophyte,Therophyte,Hydrophyte</t>
+    <t xml:space="preserve">chamaephyte,cryptophyte,epiphyte,hemicryptophyte,phanerophyte,therophyte,hydrophyte</t>
   </si>
   <si>
     <t xml:space="preserve">Growth form</t>
@@ -64,13 +64,16 @@
     <t xml:space="preserve">GrowthForm</t>
   </si>
   <si>
+    <t xml:space="preserve">tree,shrub,herb,shrub/herb,tree/herb,tree/shrub,tree/shrub/herb,fern,grass,other</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaf shape</t>
   </si>
   <si>
     <t xml:space="preserve">LeafShape</t>
   </si>
   <si>
-    <t xml:space="preserve">Broad,Linear,Needle,Scale,Spines,Succulent</t>
+    <t xml:space="preserve">broad,linear,needle,scale,spines,succulent</t>
   </si>
   <si>
     <t xml:space="preserve">Leaf area </t>
@@ -91,6 +94,9 @@
     <t xml:space="preserve">LeafSize</t>
   </si>
   <si>
+    <t xml:space="preserve">lepto,macro,meso,micro,nano,noto,pico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaf angle (inclination, orientation)</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">DispersalMode</t>
   </si>
   <si>
+    <t xml:space="preserve">insect,auto,ballistic,vertebrate,water,wind,vehicles</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leaf phenology type</t>
   </si>
   <si>
@@ -113,6 +122,15 @@
   </si>
   <si>
     <t xml:space="preserve">drought-semideciduous,oneflush-evergreen,winter-deciduous,winter-semideciduous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade tolerance type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShadeToleranceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light-demanding,shade-tolerant</t>
   </si>
   <si>
     <t xml:space="preserve">Duration of leaves (leaf lifespan)</t>
@@ -683,6 +701,12 @@
   </si>
   <si>
     <t xml:space="preserve">ysen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade tolerance index according to Valladares and Niinemets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShadeTolerance</t>
   </si>
 </sst>
 </file>
@@ -795,7 +819,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -809,6 +833,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,12 +967,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1029"/>
+  <dimension ref="A1:H1030"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,6 +1029,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -1014,15 +1043,18 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1030,87 +1062,95 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="3" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -1118,528 +1158,566 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>20</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="3"/>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>87</v>
+      </c>
       <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="H35" s="1" t="n">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="H36" s="1" t="n">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="H37" s="1" t="n">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="H38" s="1" t="n">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1648,957 +1726,1055 @@
         <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>107</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="H48" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="H49" s="1" t="n">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="H50" s="1" t="n">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="H52" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="H53" s="1" t="n">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="H54" s="1" t="n">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="H56" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="H57" s="1" t="n">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="H58" s="1" t="n">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>100</v>
-      </c>
+      <c r="G65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="1" t="n">
-        <v>0</v>
+      <c r="G66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
+      <c r="G74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
+      <c r="G83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3536,6 +3712,7 @@
     <row r="1027" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1028" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1029" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1030" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data-raw/HarmonizedTraitDefinition.xlsx
+++ b/data-raw/HarmonizedTraitDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="221">
   <si>
     <t xml:space="preserve">Definition</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gswmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem conductance to water vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbark</t>
   </si>
   <si>
     <t xml:space="preserve">Osmotic potential at full turgor of leaves</t>
@@ -967,12 +973,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1030"/>
+  <dimension ref="A1:H1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,27 +1552,30 @@
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1582,25 +1591,24 @@
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>89</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1618,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1635,7 +1643,9 @@
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1651,28 +1661,24 @@
       <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1683,16 +1689,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1703,16 +1709,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>106</v>
@@ -1752,26 +1758,27 @@
         <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="n">
@@ -1790,9 +1797,8 @@
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>109</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="n">
         <v>0</v>
@@ -1801,16 +1807,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1830,7 +1836,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1850,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1861,16 +1867,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1881,16 +1887,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1901,16 +1907,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1930,27 +1936,27 @@
         <v>20</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1961,16 +1967,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1981,25 +1987,27 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>134</v>
@@ -2007,28 +2015,26 @@
       <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2039,16 +2045,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2059,25 +2065,27 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>139</v>
@@ -2085,28 +2093,26 @@
       <c r="C57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2117,16 +2123,16 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2137,25 +2143,27 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>144</v>
@@ -2163,9 +2171,7 @@
       <c r="C61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="n">
@@ -2184,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2195,19 +2201,21 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -2221,28 +2229,26 @@
       <c r="C64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="3"/>
@@ -2253,25 +2259,23 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="n">
-        <v>100</v>
-      </c>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -2284,14 +2288,16 @@
         <v>20</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
@@ -2304,7 +2310,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2324,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2364,7 +2370,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2375,16 +2381,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2395,16 +2401,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2424,7 +2430,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2435,18 +2441,22 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2475,9 +2485,7 @@
       <c r="C77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2485,36 +2493,34 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2534,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2554,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2614,25 +2620,27 @@
         <v>20</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -2650,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -2668,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -2686,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -2695,16 +2703,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -2719,34 +2727,30 @@
         <v>212</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G91" s="3" t="n">
         <v>0</v>
@@ -2763,19 +2767,40 @@
         <v>218</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H92" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3713,6 +3738,7 @@
     <row r="1028" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1029" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1030" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1031" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
